--- a/data_config/BattleProcessWaveReward.xlsx
+++ b/data_config/BattleProcessWaveReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="10845"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>第 1 波通过奖励</t>
+  </si>
+  <si>
+    <t>100,101</t>
   </si>
   <si>
     <t>1,1</t>
@@ -740,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,13 +762,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,7 +1125,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1127,8 +1133,7 @@
     <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="5" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.625" style="1" customWidth="1"/>
@@ -1247,19 +1252,19 @@
       <c r="E4" s="2">
         <v>300</v>
       </c>
-      <c r="F4" s="6">
-        <v>100101</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="J4" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1271,7 +1276,7 @@
         <v>10002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>500001</v>
@@ -1279,19 +1284,19 @@
       <c r="E5" s="2">
         <v>600</v>
       </c>
-      <c r="F5" s="6">
-        <v>100101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="J5" s="9">
         <v>3</v>
       </c>
     </row>
@@ -1303,7 +1308,7 @@
         <v>10003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>500001</v>
@@ -1311,19 +1316,19 @@
       <c r="E6" s="2">
         <v>900</v>
       </c>
-      <c r="F6" s="6">
-        <v>100101</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="J6" s="9">
         <v>4</v>
       </c>
     </row>

--- a/data_config/BattleProcessWaveReward.xlsx
+++ b/data_config/BattleProcessWaveReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16455" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -103,25 +103,16 @@
     <t>第 1 波通过奖励</t>
   </si>
   <si>
-    <t>100,101</t>
+    <t>401,402</t>
   </si>
   <si>
     <t>1,1</t>
   </si>
   <si>
-    <t>401,402</t>
-  </si>
-  <si>
     <t>第 2 波通过奖励</t>
   </si>
   <si>
-    <t>2,2</t>
-  </si>
-  <si>
     <t>第 3 波通过奖励</t>
-  </si>
-  <si>
-    <t>3,3</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1116,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G4" sqref="G4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1252,14 +1243,10 @@
       <c r="E4" s="2">
         <v>300</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>25</v>
@@ -1276,7 +1263,7 @@
         <v>10002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>500001</v>
@@ -1284,14 +1271,10 @@
       <c r="E5" s="2">
         <v>600</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>25</v>
@@ -1308,7 +1291,7 @@
         <v>10003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>500001</v>
@@ -1316,14 +1299,10 @@
       <c r="E6" s="2">
         <v>900</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>25</v>

--- a/data_config/BattleProcessWaveReward.xlsx
+++ b/data_config/BattleProcessWaveReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="11430"/>
+    <workbookView windowWidth="16260" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -100,19 +100,40 @@
     <t>概率箱子数目</t>
   </si>
   <si>
+    <t>第 1 波准备奖励</t>
+  </si>
+  <si>
+    <t>401,402</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>第 2 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 3 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 4 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 5 波准备奖励</t>
+  </si>
+  <si>
     <t>第 1 波通过奖励</t>
   </si>
   <si>
-    <t>401,402</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
     <t>第 2 波通过奖励</t>
   </si>
   <si>
     <t>第 3 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 4 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 5 波通过奖励</t>
   </si>
 </sst>
 </file>
@@ -753,13 +774,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1113,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1227,60 +1248,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>500001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>300</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="9">
-        <v>2</v>
-      </c>
+    <row r="4" spans="3:10">
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>10002</v>
+        <v>100001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>500001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>600</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" s="2"/>
+      <c r="F5">
+        <v>100001</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1288,131 +1288,288 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>10003</v>
+        <v>100002</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" s="2"/>
+      <c r="F6">
+        <v>100001</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>100003</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6">
+      <c r="D7"/>
+      <c r="E7" s="2"/>
+      <c r="F7">
+        <v>100001</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:10">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>100004</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" s="2"/>
+      <c r="F8">
+        <v>100001</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:10">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>100005</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" s="2"/>
+      <c r="F9">
+        <v>100001</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>100101</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
         <v>500001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E14" s="2">
+        <v>300</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>100102</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>500002</v>
+      </c>
+      <c r="E15" s="2">
+        <v>500</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>100103</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>500003</v>
+      </c>
+      <c r="E16" s="2">
+        <v>700</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>100104</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>500004</v>
+      </c>
+      <c r="E17" s="2">
         <v>900</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="2"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="3:9">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>100105</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>500005</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1100</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="2"/>
@@ -1420,8 +1577,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="2"/>
@@ -1429,8 +1586,17 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="2"/>
@@ -1438,8 +1604,53 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleProcessWaveReward.xlsx
+++ b/data_config/BattleProcessWaveReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="11700"/>
+    <workbookView windowWidth="20265" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D14" sqref="D14:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1265,7 +1265,6 @@
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5"/>
       <c r="E5" s="2"/>
       <c r="F5">
         <v>100001</v>
@@ -1293,7 +1292,6 @@
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6"/>
       <c r="E6" s="2"/>
       <c r="F6">
         <v>100001</v>
@@ -1321,7 +1319,6 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7"/>
       <c r="E7" s="2"/>
       <c r="F7">
         <v>100001</v>
@@ -1427,8 +1424,6 @@
       <c r="E14" s="2">
         <v>300</v>
       </c>
-      <c r="F14"/>
-      <c r="G14"/>
       <c r="H14" s="6" t="s">
         <v>24</v>
       </c>
@@ -1450,7 +1445,7 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <v>500002</v>
+        <v>500001</v>
       </c>
       <c r="E15" s="2">
         <v>500</v>
@@ -1478,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="D16">
-        <v>500003</v>
+        <v>500001</v>
       </c>
       <c r="E16" s="2">
         <v>700</v>
@@ -1506,7 +1501,7 @@
         <v>33</v>
       </c>
       <c r="D17">
-        <v>500004</v>
+        <v>500001</v>
       </c>
       <c r="E17" s="2">
         <v>900</v>
@@ -1525,7 +1520,7 @@
         <v>34</v>
       </c>
       <c r="D18">
-        <v>500005</v>
+        <v>500001</v>
       </c>
       <c r="E18" s="2">
         <v>1100</v>

--- a/data_config/BattleProcessWaveReward.xlsx
+++ b/data_config/BattleProcessWaveReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20265" windowHeight="11700"/>
+    <workbookView windowWidth="16830" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -121,6 +121,51 @@
     <t>第 5 波准备奖励</t>
   </si>
   <si>
+    <t>第 6 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 7 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 8 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 9 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 10 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 11 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 12 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 13 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 14 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 15 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 16 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 17 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 18 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 19 波准备奖励</t>
+  </si>
+  <si>
+    <t>第 20 波准备奖励</t>
+  </si>
+  <si>
     <t>第 1 波通过奖励</t>
   </si>
   <si>
@@ -134,6 +179,51 @@
   </si>
   <si>
     <t>第 5 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 6 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 7 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 8 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 9 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 10 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 11 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 12 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 13 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 14 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 15 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 16 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 17 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 18 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 19 波通过奖励</t>
+  </si>
+  <si>
+    <t>第 20 波通过奖励</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1380,272 +1470,803 @@
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="2"/>
+    <row r="10" customFormat="1" spans="1:10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>100006</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="2"/>
+      <c r="F10">
+        <v>100001</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:10">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>100007</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="2"/>
+      <c r="F11">
+        <v>100001</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:10">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>100008</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="2"/>
+      <c r="F12">
+        <v>100001</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:10">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>100009</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="F13">
+        <v>100001</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:10">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
-        <v>100101</v>
+        <v>100010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>500001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>300</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14">
+        <v>100001</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:10">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
-        <v>100102</v>
+        <v>100011</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>500001</v>
-      </c>
-      <c r="E15" s="2">
-        <v>500</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15">
+        <v>100001</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:10">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>100103</v>
+        <v>100012</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>500001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>700</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16">
+        <v>100001</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:10">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>100104</v>
+        <v>100013</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17">
-        <v>500001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>900</v>
+        <v>37</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17">
+        <v>100001</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:10">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>100105</v>
+        <v>100014</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18">
-        <v>500001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1100</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18">
+        <v>100001</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>100015</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19">
+        <v>100001</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:10">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>100016</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20">
+        <v>100001</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:10">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>100017</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21">
+        <v>100001</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:10">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>100018</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22">
+        <v>100001</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:10">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>100019</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23">
+        <v>100001</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:10">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>100020</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24">
+        <v>100001</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="3:9">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="3:10">
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="3:9">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="3:10">
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="3:9">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:10">
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="3:9">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="3:10">
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="33" spans="3:9">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>100101</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>500001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>300</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>100102</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>500001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>350</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>100103</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31">
+        <v>500001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>400</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>100104</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <v>500001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>450</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>100105</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>500001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>500</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="3:9">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>100106</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>500001</v>
+      </c>
+      <c r="E34" s="2">
+        <v>550</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="36" spans="3:9">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>100107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>500001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>600</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>100108</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36">
+        <v>500001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>650</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>100109</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>500001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>700</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>100110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38">
+        <v>500001</v>
+      </c>
+      <c r="E38" s="2">
+        <v>750</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>100111</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39">
+        <v>500001</v>
+      </c>
+      <c r="E39" s="2">
+        <v>800</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>100112</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40">
+        <v>500001</v>
+      </c>
+      <c r="E40" s="2">
+        <v>850</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>100113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41">
+        <v>500001</v>
+      </c>
+      <c r="E41" s="2">
+        <v>900</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>100114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <v>500001</v>
+      </c>
+      <c r="E42" s="2">
+        <v>950</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>100115</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43">
+        <v>500001</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>100116</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <v>500001</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>100117</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>500001</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>100118</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <v>500001</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1150</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>100119</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>500001</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>100120</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>500001</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1250</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
